--- a/PBI/Estrella-CopoNieve.xlsx
+++ b/PBI/Estrella-CopoNieve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\Dataverso\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43D861C-1A74-454A-82E5-47EE87C7C93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E22ACE-90A8-4066-94C7-C5763E743B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{44015D4A-1427-4958-BB1E-C969BB64705A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>IDCategoria</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Solido</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
@@ -137,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,37 +648,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7558E87D-7EC9-4666-8E25-A2452D0B1C69}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43831</v>
       </c>
     </row>
   </sheetData>
